--- a/public/specialties.xlsx
+++ b/public/specialties.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\capacite-app-2025\capacite-app-2025\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hyamy9974\capacite-app-new\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2955" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -384,18 +384,18 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.77734375" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,7 +409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -420,10 +420,10 @@
         <v>879</v>
       </c>
       <c r="D2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -434,10 +434,10 @@
         <v>879</v>
       </c>
       <c r="D3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -448,10 +448,10 @@
         <v>333</v>
       </c>
       <c r="D4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -462,10 +462,10 @@
         <v>688</v>
       </c>
       <c r="D5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -476,10 +476,10 @@
         <v>1149</v>
       </c>
       <c r="D6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="D11" s="2"/>
     </row>
